--- a/data/trans_dic/P41A_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P41A_R2-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1211725618243394</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.08705680632044491</v>
+        <v>0.08705680632044495</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1973207655134496</v>
@@ -697,7 +697,7 @@
         <v>0.1609686969131003</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1305628162494933</v>
+        <v>0.1305628162494932</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2120973710250089</v>
+        <v>0.2105035637329013</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.197988731101306</v>
+        <v>0.1942960008321967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1834662622093087</v>
+        <v>0.1834240431793378</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1446156173336376</v>
+        <v>0.1440503740802321</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1437103536928728</v>
+        <v>0.1451946782423863</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1483430347259748</v>
+        <v>0.1482178507031482</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1029995840087899</v>
+        <v>0.1007857164945264</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06799155132739591</v>
+        <v>0.06695235836403778</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1799157841151594</v>
+        <v>0.1785756861002815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1750250134042022</v>
+        <v>0.1737994525426326</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1448574350601761</v>
+        <v>0.1445316344930494</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1096088126666162</v>
+        <v>0.1093710138547319</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2649391556177019</v>
+        <v>0.2654504977266238</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2511781223680055</v>
+        <v>0.2482448738963845</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2433125812939112</v>
+        <v>0.2440256744428017</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.224221693979155</v>
+        <v>0.2261011274233722</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1863750104419038</v>
+        <v>0.1844041154912545</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.190168438058486</v>
+        <v>0.1888458227075024</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.142006033751277</v>
+        <v>0.1417394630073399</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1127885185354806</v>
+        <v>0.1113642216325722</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2142658915349116</v>
+        <v>0.2131564366448578</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2067461914256492</v>
+        <v>0.2068640942561627</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1803064467900364</v>
+        <v>0.1793242283294106</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1544938126933562</v>
+        <v>0.1544567185780669</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.4716088793126138</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4000727243543468</v>
+        <v>0.4000727243543469</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5807067749329029</v>
@@ -833,7 +833,7 @@
         <v>0.4946544378081202</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4330218648571501</v>
+        <v>0.43302186485715</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5905426387198555</v>
+        <v>0.5876322936688456</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5556980327866676</v>
+        <v>0.555539212653907</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4925176628322223</v>
+        <v>0.4938690396231912</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4362957576762798</v>
+        <v>0.4361459978378981</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.522281381674345</v>
+        <v>0.5225326580112072</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4683314862985058</v>
+        <v>0.4694619669580558</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4489955064075159</v>
+        <v>0.4496877052908235</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3752203811702977</v>
+        <v>0.3767660351636546</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5628918385807561</v>
+        <v>0.5633254749949799</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5231517450989824</v>
+        <v>0.5232750953827826</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4782719448044457</v>
+        <v>0.4804002246032526</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.414066698936456</v>
+        <v>0.4130077363524041</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6350706156682608</v>
+        <v>0.6374056586562658</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.601277679397388</v>
+        <v>0.6025978668653931</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5373087990357049</v>
+        <v>0.5383221536656037</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.494023031085628</v>
+        <v>0.4943601242665872</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5756608143743269</v>
+        <v>0.5728091798643592</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5166528907839451</v>
+        <v>0.5195564980813674</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4962282451402729</v>
+        <v>0.4949471834945374</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.423795155223074</v>
+        <v>0.4242524246705657</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.597018351384482</v>
+        <v>0.5972644237925991</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5569675546680029</v>
+        <v>0.5571220040782654</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5108627929664719</v>
+        <v>0.5123869018217083</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.450504222409671</v>
+        <v>0.4522557795844847</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.5732352822471432</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4504275576531998</v>
+        <v>0.4504275576531996</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.6159868412180244</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5877313335419733</v>
+        <v>0.589064094988508</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6385658408996804</v>
+        <v>0.6374326409555069</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5458361911318391</v>
+        <v>0.5399311849378787</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4154073358499987</v>
+        <v>0.4113625925596313</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5499770142137037</v>
+        <v>0.5499810102493624</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5604198179922668</v>
+        <v>0.5593044665319646</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5346388892216943</v>
+        <v>0.5310138173955127</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4107200658418353</v>
+        <v>0.4125523424096426</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5869303098978453</v>
+        <v>0.586074844899504</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6120440303638689</v>
+        <v>0.6146293780456242</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5488216824013816</v>
+        <v>0.5477282100888866</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4248399172628236</v>
+        <v>0.4225326775622512</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6769010632900464</v>
+        <v>0.6730392677672611</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7287106562151812</v>
+        <v>0.7274858002394733</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6279484012635771</v>
+        <v>0.6283997060572167</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5062724841099737</v>
+        <v>0.504841593945324</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6382977155179614</v>
+        <v>0.6411749452477868</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6557465114899568</v>
+        <v>0.6563350161901008</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6178979776258683</v>
+        <v>0.6173512136277791</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4882977808471974</v>
+        <v>0.4894345389277436</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6494688238095301</v>
+        <v>0.6481219924119435</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6781165923570238</v>
+        <v>0.6830452451184742</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6078674138073551</v>
+        <v>0.6113847359783992</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4851188847526348</v>
+        <v>0.4839531969182941</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4793705911855092</v>
+        <v>0.4800116549989177</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4746603206717414</v>
+        <v>0.4751137440120193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4437135373903165</v>
+        <v>0.4418032873451077</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3939865307853615</v>
+        <v>0.3955510454946345</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3876577281461242</v>
+        <v>0.3877862588926904</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3700026450538873</v>
+        <v>0.369262616591792</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3730633144690429</v>
+        <v>0.3725254276052445</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3325085652475613</v>
+        <v>0.3300370934734386</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4395075421811741</v>
+        <v>0.438925716181664</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4269581835437287</v>
+        <v>0.4264094106946831</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4115686074004553</v>
+        <v>0.4116560034426092</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3696027519369874</v>
+        <v>0.3674699205374338</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5138467378271427</v>
+        <v>0.5158610351882837</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5103914386264483</v>
+        <v>0.5105535740463523</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4765936798382419</v>
+        <v>0.4769432729409311</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.437229726132071</v>
+        <v>0.4403394836889085</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4217495088494569</v>
+        <v>0.4210922884323418</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4034536166805686</v>
+        <v>0.4038149160248335</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4055836485513514</v>
+        <v>0.404414330560513</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3664165344405174</v>
+        <v>0.3648647897807588</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4636914926707911</v>
+        <v>0.463811133366152</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.451029941950245</v>
+        <v>0.4503571573003746</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4361239751646512</v>
+        <v>0.4350715569322323</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3966596259377141</v>
+        <v>0.3957223274623897</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>218213</v>
+        <v>216573</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>192558</v>
+        <v>188966</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>138109</v>
+        <v>138077</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>60450</v>
+        <v>60213</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>188182</v>
+        <v>190126</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>198146</v>
+        <v>197979</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>102327</v>
+        <v>100127</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>34479</v>
+        <v>33952</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>420695</v>
+        <v>417561</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>404010</v>
+        <v>401181</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>252956</v>
+        <v>252387</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>101400</v>
+        <v>101180</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>272578</v>
+        <v>273104</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>244288</v>
+        <v>241435</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>183159</v>
+        <v>183696</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>93725</v>
+        <v>94511</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>244049</v>
+        <v>241469</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>254013</v>
+        <v>252247</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>141078</v>
+        <v>140813</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>57196</v>
+        <v>56473</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>501015</v>
+        <v>498421</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>477232</v>
+        <v>477504</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>314859</v>
+        <v>313143</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>142923</v>
+        <v>142889</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>997782</v>
+        <v>992865</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1090870</v>
+        <v>1090558</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1020604</v>
+        <v>1023405</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>672039</v>
+        <v>671808</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>824296</v>
+        <v>824692</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>822772</v>
+        <v>824758</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>887005</v>
+        <v>888372</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>545379</v>
+        <v>547626</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1839453</v>
+        <v>1840870</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1946061</v>
+        <v>1946520</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1935925</v>
+        <v>1944540</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1239641</v>
+        <v>1236471</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1073017</v>
+        <v>1076962</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1180346</v>
+        <v>1182938</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1113422</v>
+        <v>1115521</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>760958</v>
+        <v>761477</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>908542</v>
+        <v>904042</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>907664</v>
+        <v>912765</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>980314</v>
+        <v>977784</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>615982</v>
+        <v>616647</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1950974</v>
+        <v>1951778</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2071851</v>
+        <v>2072426</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>2067845</v>
+        <v>2074014</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1348729</v>
+        <v>1353972</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>321404</v>
+        <v>322133</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>306657</v>
+        <v>306113</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>297985</v>
+        <v>294761</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>223543</v>
+        <v>221367</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>260301</v>
+        <v>260303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>257026</v>
+        <v>256514</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>292621</v>
+        <v>290637</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>225763</v>
+        <v>226770</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>598758</v>
+        <v>597885</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>574623</v>
+        <v>577050</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>599998</v>
+        <v>598802</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>462143</v>
+        <v>459633</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>370167</v>
+        <v>368056</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>349947</v>
+        <v>349359</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>342811</v>
+        <v>343058</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>272440</v>
+        <v>271670</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>302103</v>
+        <v>303465</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>300746</v>
+        <v>301016</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>338190</v>
+        <v>337891</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>268405</v>
+        <v>269030</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>662556</v>
+        <v>661182</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>636656</v>
+        <v>641283</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>664549</v>
+        <v>668395</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>527715</v>
+        <v>526447</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1565284</v>
+        <v>1567377</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1621373</v>
+        <v>1622922</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1495721</v>
+        <v>1489282</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>983572</v>
+        <v>987478</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1302921</v>
+        <v>1303353</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1313944</v>
+        <v>1311316</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1311811</v>
+        <v>1309919</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>834687</v>
+        <v>828483</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2912308</v>
+        <v>2908453</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2974633</v>
+        <v>2970809</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2834571</v>
+        <v>2835173</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1850502</v>
+        <v>1839824</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1677859</v>
+        <v>1684436</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1743426</v>
+        <v>1743980</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1606557</v>
+        <v>1607736</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1091527</v>
+        <v>1099290</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1417504</v>
+        <v>1415295</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1432734</v>
+        <v>1434017</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1426163</v>
+        <v>1422051</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>919805</v>
+        <v>915910</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3072558</v>
+        <v>3073351</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>3142341</v>
+        <v>3137654</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>3003690</v>
+        <v>2996441</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1985969</v>
+        <v>1981276</v>
       </c>
     </row>
     <row r="20">
